--- a/DMP/Report/Template/DQA FY2017 Q4/DATIM PIVOT TABLE Q4.xlsx
+++ b/DMP/Report/Template/DQA FY2017 Q4/DATIM PIVOT TABLE Q4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Facility Pivot Table" sheetId="1" r:id="rId1"/>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BC34FF-86E3-486F-92B1-0378A9FA103C}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
